--- a/main/paso4.xlsx
+++ b/main/paso4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,438 +441,783 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Temp</t>
+          <t>T-ene</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>T-feb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>T-mar</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>T-abr</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>T-may</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>T-jun</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>T-jul</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>T-ago</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>T-sep</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>T-oct</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>T-nov</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>T-Dic</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>precio/vuelo</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>links</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>link_nocturno</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>link_monumentos</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>link_acuaticos</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>link_museos</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>link_spas</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>link_diversion</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>link_naturaleza</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>vida_nocturna</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>monumentos</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>deportes_agua</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>museos</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>spas</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>diversion</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>naturaleza</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>poblacion</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>tamaño</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>buffet</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>americana</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>asiatica</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>italiana</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>coste</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>alquiler</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>vida+alquiler</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>comestibles</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>restaurantes</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>calculo_viaje</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>presupuesto</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>República Checa-Praga</t>
+          <t>Francia-Paris</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="C2" t="n">
-        <v>274</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c42-Prague_Bohemia.html</t>
-        </is>
+        <v>7.7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.4</v>
       </c>
       <c r="E2" t="n">
-        <v>404</v>
+        <v>11.3</v>
       </c>
       <c r="F2" t="n">
-        <v>581</v>
+        <v>16.7</v>
       </c>
       <c r="G2" t="n">
-        <v>44</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>212</v>
+        <v>22.2</v>
       </c>
       <c r="I2" t="n">
-        <v>136</v>
+        <v>22.5</v>
       </c>
       <c r="J2" t="n">
-        <v>254</v>
+        <v>16.7</v>
       </c>
       <c r="K2" t="n">
-        <v>75</v>
+        <v>15.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1309000</v>
-      </c>
-      <c r="M2" t="inlineStr">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N2" t="n">
+        <v>162</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c42-Paris_Ile_de_France.html</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c20-Paris_Ile_de_France.html</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c47-Paris_Ile_de_France.html</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c55-Paris_Ile_de_France.html</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c49-Paris_Ile_de_France.html</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c40-Paris_Ile_de_France.html</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c56-Paris_Ile_de_France.html</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c57-Paris_Ile_de_France.html</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>329</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>231</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>304</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>227</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>156</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2161000</v>
+      </c>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N2" t="n">
-        <v>144</v>
-      </c>
-      <c r="O2" t="n">
-        <v>242</v>
-      </c>
-      <c r="P2" t="n">
-        <v>430</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>521</v>
-      </c>
-      <c r="R2" t="n">
-        <v>45.12</v>
-      </c>
-      <c r="S2" t="n">
-        <v>18.27</v>
-      </c>
-      <c r="T2" t="n">
-        <v>32.23</v>
-      </c>
-      <c r="U2" t="n">
-        <v>38.08</v>
-      </c>
-      <c r="V2" t="n">
-        <v>33.25</v>
-      </c>
-      <c r="W2" t="n">
-        <v>270.72</v>
-      </c>
-      <c r="X2" t="n">
-        <v>544.72</v>
+      <c r="AF2" t="n">
+        <v>166</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>509</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>2275</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1751</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>74.84999999999999</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>68.31</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>75.37</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>449.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Portugal-Lisboa</t>
+          <t>República Checa-Praga</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.8</v>
+        <v>1.6</v>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://www.tripadvisor.es/Attractions-g189158-Activities-c42-Lisbon_Lisbon_District_Central_Portugal.html</t>
-        </is>
+        <v>3.8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.2</v>
       </c>
       <c r="E3" t="n">
-        <v>157</v>
+        <v>7.1</v>
       </c>
       <c r="F3" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>274</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c42-Prague_Bohemia.html</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c20-Prague_Bohemia.html</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c47-Prague_Bohemia.html</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c55-Prague_Bohemia.html</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c49-Prague_Bohemia.html</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c40-Prague_Bohemia.html</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c56-Prague_Bohemia.html</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c57-Prague_Bohemia.html</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>404</v>
+      </c>
+      <c r="X3" t="n">
+        <v>581</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>212</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>254</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1309000</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>grande</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v>144</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>242</v>
+      </c>
+      <c r="AH3" t="n">
         <v>430</v>
       </c>
-      <c r="G3" t="n">
-        <v>137</v>
-      </c>
-      <c r="H3" t="n">
-        <v>109</v>
-      </c>
-      <c r="I3" t="n">
-        <v>125</v>
-      </c>
-      <c r="J3" t="n">
-        <v>59</v>
-      </c>
-      <c r="K3" t="n">
-        <v>55</v>
-      </c>
-      <c r="L3" t="n">
-        <v>504718</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>pequeña</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>245</v>
-      </c>
-      <c r="O3" t="n">
-        <v>117</v>
-      </c>
-      <c r="P3" t="n">
-        <v>341</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>376</v>
-      </c>
-      <c r="R3" t="n">
-        <v>50.39</v>
-      </c>
-      <c r="S3" t="n">
-        <v>21.07</v>
-      </c>
-      <c r="T3" t="n">
-        <v>36.31</v>
-      </c>
-      <c r="U3" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>43.13</v>
-      </c>
-      <c r="W3" t="n">
-        <v>302.34</v>
-      </c>
-      <c r="X3" t="n">
-        <v>355.34</v>
+      <c r="AI3" t="n">
+        <v>521</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>38.08</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>270.72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hungría-Budapest</t>
+          <t>Alemania-Berlin</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="C4" t="n">
-        <v>158</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://www.tripadvisor.es/Attractions-g274887-Activities-c42-Budapest_Central_Hungary.html</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.2</v>
       </c>
       <c r="E4" t="n">
-        <v>213</v>
+        <v>8.5</v>
       </c>
       <c r="F4" t="n">
-        <v>242</v>
+        <v>15.8</v>
       </c>
       <c r="G4" t="n">
-        <v>62</v>
+        <v>20.3</v>
       </c>
       <c r="H4" t="n">
-        <v>116</v>
+        <v>20.4</v>
       </c>
       <c r="I4" t="n">
-        <v>118</v>
+        <v>21.7</v>
       </c>
       <c r="J4" t="n">
-        <v>173</v>
+        <v>13.9</v>
       </c>
       <c r="K4" t="n">
-        <v>52</v>
+        <v>12.7</v>
       </c>
       <c r="L4" t="n">
-        <v>9640503</v>
-      </c>
-      <c r="M4" t="inlineStr">
+        <v>5.7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N4" t="n">
+        <v>181</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c42-Berlin.html</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c20-Berlin.html</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c47-Berlin.html</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c55-Berlin.html</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c49-Berlin.html</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c40-Berlin.html</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c56-Berlin.html</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c57-Berlin.html</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>372</v>
+      </c>
+      <c r="X4" t="n">
+        <v>380</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>194</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>111</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>129</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>96</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3645000</v>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>99</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>211</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>377</v>
-      </c>
-      <c r="R4" t="n">
-        <v>42.03</v>
-      </c>
-      <c r="S4" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="T4" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>32.36</v>
-      </c>
-      <c r="V4" t="n">
-        <v>33.43</v>
-      </c>
-      <c r="W4" t="n">
-        <v>252.18</v>
-      </c>
-      <c r="X4" t="n">
-        <v>410.18</v>
+      <c r="AF4" t="n">
+        <v>253</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>871</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1010</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>48.04</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>54.27</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>63.56</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>405.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alemania-Berlin</t>
+          <t>Italia-Roma</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.9</v>
+        <v>7.4</v>
       </c>
       <c r="C5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>19</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="N5" t="n">
+        <v>189</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c42-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c20-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c47-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c55-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c49-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c40-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c56-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c57-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>327</v>
+      </c>
+      <c r="X5" t="n">
+        <v>926</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z5" t="n">
         <v>181</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c42-Berlin.html</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>372</v>
-      </c>
-      <c r="F5" t="n">
-        <v>380</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" t="n">
-        <v>194</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>129</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3645000</v>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="AA5" t="n">
+        <v>184</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>134</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>73</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2873000</v>
+      </c>
+      <c r="AE5" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v>253</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>871</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1010</v>
-      </c>
-      <c r="R5" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="S5" t="n">
-        <v>26.85</v>
-      </c>
-      <c r="T5" t="n">
-        <v>48.04</v>
-      </c>
-      <c r="U5" t="n">
-        <v>54.27</v>
-      </c>
-      <c r="V5" t="n">
-        <v>63.56</v>
-      </c>
-      <c r="W5" t="n">
-        <v>405.72</v>
-      </c>
-      <c r="X5" t="n">
-        <v>586.72</v>
+      <c r="AF5" t="n">
+        <v>381</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>551</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7836</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>58.34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>75.72</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>415.5</v>
       </c>
     </row>
     <row r="6">
@@ -885,74 +1230,139 @@
         <v>5.7</v>
       </c>
       <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="N6" t="n">
         <v>134</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c42-Amsterdam_North_Holland_Province.html</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c20-Amsterdam_North_Holland_Province.html</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c47-Amsterdam_North_Holland_Province.html</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c55-Amsterdam_North_Holland_Province.html</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c49-Amsterdam_North_Holland_Province.html</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c40-Amsterdam_North_Holland_Province.html</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c56-Amsterdam_North_Holland_Province.html</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c57-Amsterdam_North_Holland_Province.html</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
         <v>381</v>
       </c>
-      <c r="F6" t="n">
+      <c r="X6" t="n">
         <v>256</v>
       </c>
-      <c r="G6" t="n">
+      <c r="Y6" t="n">
         <v>143</v>
       </c>
-      <c r="H6" t="n">
+      <c r="Z6" t="n">
         <v>149</v>
       </c>
-      <c r="I6" t="n">
+      <c r="AA6" t="n">
         <v>88</v>
       </c>
-      <c r="J6" t="n">
+      <c r="AB6" t="n">
         <v>121</v>
       </c>
-      <c r="K6" t="n">
+      <c r="AC6" t="n">
         <v>54</v>
       </c>
-      <c r="L6" t="n">
+      <c r="AD6" t="n">
         <v>821752</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="AF6" t="n">
         <v>201</v>
       </c>
-      <c r="O6" t="n">
+      <c r="AG6" t="n">
         <v>205</v>
       </c>
-      <c r="P6" t="n">
+      <c r="AH6" t="n">
         <v>480</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AI6" t="n">
         <v>506</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AJ6" t="n">
         <v>74.83</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AK6" t="n">
         <v>34.74</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AL6" t="n">
         <v>55.58</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AM6" t="n">
         <v>58.8</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AN6" t="n">
         <v>83.48999999999999</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AO6" t="n">
         <v>448.98</v>
-      </c>
-      <c r="X6" t="n">
-        <v>582.98</v>
       </c>
     </row>
   </sheetData>

--- a/main/paso4.xlsx
+++ b/main/paso4.xlsx
@@ -636,7 +636,7 @@
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>calculo_viaje</t>
+          <t>presupuesto</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
         <v>75.37</v>
       </c>
       <c r="AO2" t="n">
-        <v>449.1</v>
+        <v>74.84999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -927,7 +927,7 @@
         <v>33.25</v>
       </c>
       <c r="AO3" t="n">
-        <v>270.72</v>
+        <v>45.12</v>
       </c>
     </row>
     <row r="4">
@@ -1072,7 +1072,7 @@
         <v>63.56</v>
       </c>
       <c r="AO4" t="n">
-        <v>405.72</v>
+        <v>67.62</v>
       </c>
     </row>
     <row r="5">
@@ -1217,7 +1217,7 @@
         <v>75.72</v>
       </c>
       <c r="AO5" t="n">
-        <v>415.5</v>
+        <v>69.25</v>
       </c>
     </row>
     <row r="6">
@@ -1362,7 +1362,7 @@
         <v>83.48999999999999</v>
       </c>
       <c r="AO6" t="n">
-        <v>448.98</v>
+        <v>74.83</v>
       </c>
     </row>
   </sheetData>
